--- a/xlsx/立法部門_intext.xlsx
+++ b/xlsx/立法部門_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_美國_立法部門</t>
+    <t>体育运动_体育运动_纳粹德国_立法部門</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
